--- a/biology/Botanique/Impatiens_balsamina/Impatiens_balsamina.xlsx
+++ b/biology/Botanique/Impatiens_balsamina/Impatiens_balsamina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Impatiens balsamina (la Balsamine des jardins, "garden balsam" en anglais) est une espèce de plantes à fleurs de la famille des balsaminacées originaire d'Inde et de Birmanie et importée en Europe au XVIe siècle. C'est une plante annuelle qui se cultive dans les jardins[1]. (Ne pas confondre avec Impatiens walleriana parfois aussi appelée Balsamine des jardins). La floraison a lieu à l'été et à l'automne. La couleur de la fleur va du blanc au rose, rouge et violet.
-Elle a été utilisée en baume (d'où le nom de balsamine) comme médecine indigène en Asie pour le traitement des rhumatismes, des fractures, et de certaines inflammations. Des études pharmacologiques modernes ont démontré les propriétés antifongiques, antibactériennes et antitumorales de cette plante[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Impatiens balsamina (la Balsamine des jardins, "garden balsam" en anglais) est une espèce de plantes à fleurs de la famille des balsaminacées originaire d'Inde et de Birmanie et importée en Europe au XVIe siècle. C'est une plante annuelle qui se cultive dans les jardins. (Ne pas confondre avec Impatiens walleriana parfois aussi appelée Balsamine des jardins). La floraison a lieu à l'été et à l'automne. La couleur de la fleur va du blanc au rose, rouge et violet.
+Elle a été utilisée en baume (d'où le nom de balsamine) comme médecine indigène en Asie pour le traitement des rhumatismes, des fractures, et de certaines inflammations. Des études pharmacologiques modernes ont démontré les propriétés antifongiques, antibactériennes et antitumorales de cette plante.
 </t>
         </is>
       </c>
